--- a/biology/Botanique/La_Vierge_à_la_rose/La_Vierge_à_la_rose.xlsx
+++ b/biology/Botanique/La_Vierge_à_la_rose/La_Vierge_à_la_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Vierge_%C3%A0_la_rose</t>
+          <t>La_Vierge_à_la_rose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression  La Vierge à la rose désigne un thème récurrent de   l'iconographie chrétienne, plus précisément dans la représentation artistique de la Vierge Marie.
 Dans ces représentations artistiques (peinture et sculpture),  la Vierge Marie est accompagnée, dans la composition, d'un objet symbolique, une rose, présente  pour invoquer l’amour et en particulier l’« amour universel » que représente la Vierge aussi appelé, « la rose sans épines ».
-Outre les invocations par une seule fleur coupée, des Vierge au buisson de rose existent également (Schongauer, William Adolphe Bouguereau...) où la Vierge portant l'Enfant est placé devant un rosier. La symbolique[1] change alors entre fleur unique coupée (voire sans épines) tenue, ou présente en premier plan, et arbuste placé en fond.
+Outre les invocations par une seule fleur coupée, des Vierge au buisson de rose existent également (Schongauer, William Adolphe Bouguereau...) où la Vierge portant l'Enfant est placé devant un rosier. La symbolique change alors entre fleur unique coupée (voire sans épines) tenue, ou présente en premier plan, et arbuste placé en fond.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Vierge_%C3%A0_la_rose</t>
+          <t>La_Vierge_à_la_rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Peintres du thème</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Maestro di Sant'Ivo : Madonna della Rosa o del Romitorio (1400-1410)
 Simon Vouet (copie anonyme au musée du Louvre)
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Vierge_%C3%A0_la_rose</t>
+          <t>La_Vierge_à_la_rose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Sculpteurs du thème</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pietro di Giovanni Tedesco, œuvre de 1399  commanditée par Arte dei Medici e Speziali (la corporation des Médecins et Apothicaires) pour la loggia au grain, devenue église des Arti,  d'Orsanmichele, Florence.</t>
         </is>
